--- a/supra/Database_Design.xlsx
+++ b/supra/Database_Design.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Project\Project Mamo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_&amp;_Github\Git\Project_Web_Dev\supra\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1A0880-16FE-4B04-9737-4C9A6CF6A521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -254,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,28 +470,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,10 +780,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -799,12 +800,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F3" s="10"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:8" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:8" ht="37.799999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -831,7 +832,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -852,12 +853,12 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1">
@@ -872,13 +873,13 @@
       <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="1">
         <v>2</v>
       </c>
@@ -889,11 +890,11 @@
         <v>14</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="3">
         <v>3</v>
       </c>
@@ -904,11 +905,11 @@
         <v>15</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="1">
         <v>4</v>
       </c>
@@ -919,11 +920,11 @@
         <v>31</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="1">
         <v>5</v>
       </c>
@@ -934,11 +935,11 @@
         <v>51</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="1">
         <v>6</v>
       </c>
@@ -949,11 +950,11 @@
         <v>16</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1">
         <v>7</v>
       </c>
@@ -964,11 +965,11 @@
         <v>17</v>
       </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="8">
         <v>8</v>
       </c>
@@ -979,11 +980,11 @@
         <v>49</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="8">
         <v>9</v>
       </c>
@@ -994,11 +995,11 @@
         <v>29</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="3">
         <v>10</v>
       </c>
@@ -1009,11 +1010,11 @@
         <v>56</v>
       </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="8">
         <v>11</v>
       </c>
@@ -1024,11 +1025,11 @@
         <v>60</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="1">
         <v>12</v>
       </c>
@@ -1039,14 +1040,14 @@
         <v>36</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="1">
@@ -1061,13 +1062,13 @@
       <c r="G21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="3">
         <v>2</v>
       </c>
@@ -1078,11 +1079,11 @@
         <v>22</v>
       </c>
       <c r="G22" s="11"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="1">
         <v>3</v>
       </c>
@@ -1093,11 +1094,11 @@
         <v>23</v>
       </c>
       <c r="G23" s="11"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="3">
         <v>4</v>
       </c>
@@ -1108,11 +1109,11 @@
         <v>26</v>
       </c>
       <c r="G24" s="11"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="8">
         <v>5</v>
       </c>
@@ -1123,11 +1124,11 @@
         <v>63</v>
       </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="8">
         <v>6</v>
       </c>
@@ -1138,11 +1139,11 @@
         <v>64</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="3">
         <v>6</v>
       </c>
@@ -1153,15 +1154,15 @@
         <v>27</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="14"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
+      <c r="B28" s="14"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="1">
@@ -1176,13 +1177,13 @@
       <c r="G29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="1">
         <v>2</v>
       </c>
@@ -1193,11 +1194,11 @@
         <v>39</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="1">
         <v>3</v>
       </c>
@@ -1208,11 +1209,11 @@
         <v>40</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="1">
         <v>4</v>
       </c>
@@ -1223,11 +1224,11 @@
         <v>29</v>
       </c>
       <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="1">
         <v>5</v>
       </c>
@@ -1238,14 +1239,14 @@
         <v>42</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D35" s="1">
@@ -1260,13 +1261,13 @@
       <c r="G35" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="1">
         <v>2</v>
       </c>
@@ -1277,11 +1278,11 @@
         <v>70</v>
       </c>
       <c r="G36" s="11"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="1">
         <v>3</v>
       </c>
@@ -1292,11 +1293,11 @@
         <v>71</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="1">
         <v>4</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>72</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
